--- a/documents/chunks_essais.xlsx
+++ b/documents/chunks_essais.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\COURS\Master IDL\M1\S2\Formalismes pour le TAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.u-ga.fr\home\b\bourdije\mbr\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB341D7C-C11E-4E38-B565-D3DC99AC1242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD1350D-8A43-4FD2-86BE-D6255C54550B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{2ED15163-FD19-4253-B7D0-A8F1A701CA11}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="26295" windowHeight="14310" activeTab="1" xr2:uid="{2ED15163-FD19-4253-B7D0-A8F1A701CA11}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="419">
   <si>
     <t>N°</t>
   </si>
@@ -1299,7 +1289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,8 +1332,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1377,8 +1374,20 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1430,14 +1439,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1455,14 +1476,55 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
     <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="4" builtinId="5"/>
     <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
@@ -1475,6 +1537,20 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -1491,7 +1567,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05C4EED7-4C1C-4942-9997-9E92793C929D}" name="Tableau1" displayName="Tableau1" ref="A1:J1048576" totalsRowShown="0" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05C4EED7-4C1C-4942-9997-9E92793C929D}" name="Tableau1" displayName="Tableau1" ref="A1:J1048576" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:J1048576" xr:uid="{05C4EED7-4C1C-4942-9997-9E92793C929D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{52A49CC6-5EC0-4EB6-B7CC-814AFE9E3D56}" name="N°"/>
@@ -1506,6 +1582,21 @@
     <tableColumn id="10" xr3:uid="{7CFB5941-9FC0-4091-B55B-7ECF7A23E447}" name="length_dyna=11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5ED198FC-63AC-4262-BDC9-EF3801B580EC}" name="Tableau2" displayName="Tableau2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:F11" xr:uid="{BCFED9E0-593E-4653-8D8A-8D687BCD28F1}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C6794FC0-1DC5-46CD-9690-98ADEEDBE8CE}" name="N°"/>
+    <tableColumn id="2" xr3:uid="{7DBB7F4B-7727-47FD-A5B2-08ADD47B2503}" name="Chunks désirés"/>
+    <tableColumn id="3" xr3:uid="{3F1C51B4-27C4-43F9-9D19-CE13707412C9}" name="length=9"/>
+    <tableColumn id="4" xr3:uid="{8AFAA864-B6B1-4447-8A9F-D1F99296B32C}" name="length=10"/>
+    <tableColumn id="5" xr3:uid="{DD250253-FF00-40E6-BEC9-B56937A8851A}" name="length=11"/>
+    <tableColumn id="6" xr3:uid="{7BE885C5-2BA0-4C26-97CE-E76D83DDD1FD}" name="length=12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1808,19 +1899,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7E64B0-276F-4C04-8903-269A809B1DED}">
   <dimension ref="A1:J219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="5.875" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="22.25" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="22.75" customWidth="1"/>
-    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1865,16 +1956,16 @@
       <c r="C2" t="s">
         <v>116</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="10" t="s">
         <v>253</v>
       </c>
       <c r="H2" t="s">
@@ -1993,7 +2084,7 @@
       <c r="C6" t="s">
         <v>120</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="10" t="s">
         <v>123</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2025,16 +2116,16 @@
       <c r="C7" t="s">
         <v>121</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H7" t="s">
@@ -6888,4 +6979,247 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A3883B-3917-4DAC-9FA8-AC2E199577CD}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="21">
+        <f>C10/$B$10</f>
+        <v>0.5625</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" ref="D11:F11" si="0">D10/$B$10</f>
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C11:F11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>